--- a/14_egyesitett_dokumentacio/Szamolo.xlsx
+++ b/14_egyesitett_dokumentacio/Szamolo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj_lab\bandITs\14_egyesitett_dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD70D85F-CC77-495C-A095-1161240967D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FA492-55FE-4A2C-B0CE-96676DBB6077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD0AECC2-8F8B-47D4-9316-62FA4D967719}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
   <si>
     <t>Bencze János</t>
   </si>
@@ -487,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FAEDD-E051-4E7F-BE76-BD17459E554B}">
-  <dimension ref="B2:Y81"/>
+  <dimension ref="B2:AA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,17 +501,17 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -595,7 +595,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -628,7 +628,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -670,7 +670,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -709,7 +709,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -751,7 +751,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -805,37 +805,86 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1.5</v>
+      </c>
+      <c r="K12">
+        <v>1.5</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>2.5</v>
+      </c>
+      <c r="P12">
+        <v>1.5</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>1.5</v>
+      </c>
+      <c r="S12">
+        <v>1.75</v>
+      </c>
+      <c r="U12">
+        <v>1.5</v>
+      </c>
+      <c r="X12">
+        <v>1.5</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA12">
+        <f>SUM(C12:Y12)</f>
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -844,17 +893,17 @@
         <v>82.09</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -890,7 +939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -941,7 +990,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -974,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1068,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1113,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -1157,37 +1206,89 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1.5</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>1.5</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="P28">
+        <v>1.5</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>1.5</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>1.5</v>
+      </c>
+      <c r="U28">
+        <v>1.5</v>
+      </c>
+      <c r="V28">
+        <v>2.5</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>1.5</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA28">
+        <f>SUM(C28:Y28)</f>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>20</v>
       </c>
@@ -1196,17 +1297,17 @@
         <v>98.34</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1403,7 @@
         <v>22.17</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1439,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>5</v>
       </c>
@@ -1380,7 +1481,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>6</v>
       </c>
@@ -1422,7 +1523,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1565,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>8</v>
       </c>
@@ -1521,37 +1622,95 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1.5</v>
+      </c>
+      <c r="E44">
+        <v>1.25</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1.67</v>
+      </c>
+      <c r="H44">
+        <v>1.5</v>
+      </c>
+      <c r="I44">
+        <v>1.67</v>
+      </c>
+      <c r="K44">
+        <v>1.5</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0.5</v>
+      </c>
+      <c r="R44">
+        <v>1.5</v>
+      </c>
+      <c r="S44">
+        <v>2.5</v>
+      </c>
+      <c r="U44">
+        <v>1.5</v>
+      </c>
+      <c r="V44">
+        <v>1.5</v>
+      </c>
+      <c r="X44">
+        <v>1.5</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA44">
+        <f>SUM(C44:Y44)</f>
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1.5</v>
+      </c>
+      <c r="D45">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>20</v>
       </c>
@@ -1560,17 +1719,17 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>2</v>
       </c>
@@ -1609,7 +1768,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +1810,7 @@
         <v>19.84</v>
       </c>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +1849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1891,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>6</v>
       </c>
@@ -1771,7 +1930,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>8</v>
       </c>
@@ -1870,37 +2029,80 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>1.5</v>
+      </c>
+      <c r="I60">
+        <v>2.5</v>
+      </c>
+      <c r="K60">
+        <v>1.5</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1.5</v>
+      </c>
+      <c r="R60">
+        <v>1.5</v>
+      </c>
+      <c r="U60">
+        <v>1.5</v>
+      </c>
+      <c r="V60">
+        <v>1.167</v>
+      </c>
+      <c r="X60">
+        <v>1.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.5</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA60">
+        <f>SUM(C60:Y60)</f>
+        <v>17.167000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>20</v>
       </c>
@@ -1909,17 +2111,17 @@
         <v>95.84</v>
       </c>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>2</v>
       </c>
@@ -1958,7 +2160,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>3</v>
       </c>
@@ -2012,7 +2214,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>4</v>
       </c>
@@ -2051,7 +2253,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2295,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>6</v>
       </c>
@@ -2135,7 +2337,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>7</v>
       </c>
@@ -2177,7 +2379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>8</v>
       </c>
@@ -2237,32 +2439,81 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>1.5</v>
+      </c>
+      <c r="I76">
+        <v>2.5</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1.5</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>1.5</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>1.5</v>
+      </c>
+      <c r="U76">
+        <v>1.5</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="X76">
+        <v>1.5</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA76">
+        <f>SUM(C76:Y76)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>14</v>
       </c>

--- a/14_egyesitett_dokumentacio/Szamolo.xlsx
+++ b/14_egyesitett_dokumentacio/Szamolo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj_lab\bandITs\14_egyesitett_dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FA492-55FE-4A2C-B0CE-96676DBB6077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B691B28F-BD79-4400-A7A1-31429AF91B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD0AECC2-8F8B-47D4-9316-62FA4D967719}"/>
   </bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FAEDD-E051-4E7F-BE76-BD17459E554B}">
   <dimension ref="B2:AA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +868,9 @@
       <c r="D13">
         <v>1.5</v>
       </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1272,6 +1275,12 @@
       <c r="D29">
         <v>1.5</v>
       </c>
+      <c r="E29">
+        <v>1.5</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1694,6 +1703,12 @@
       <c r="D45">
         <v>1.5</v>
       </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2086,6 +2101,9 @@
       <c r="D61">
         <v>1.5</v>
       </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -2501,6 +2519,9 @@
       </c>
       <c r="D77">
         <v>1.5</v>
+      </c>
+      <c r="F77">
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">

--- a/14_egyesitett_dokumentacio/Szamolo.xlsx
+++ b/14_egyesitett_dokumentacio/Szamolo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj_lab\bandITs\14_egyesitett_dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B691B28F-BD79-4400-A7A1-31429AF91B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1C2BB-2FFA-49BC-94B5-E92B3D106361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD0AECC2-8F8B-47D4-9316-62FA4D967719}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="21">
   <si>
     <t>Bencze János</t>
   </si>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FAEDD-E051-4E7F-BE76-BD17459E554B}">
   <dimension ref="B2:AA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,6 +871,40 @@
       <c r="F13">
         <v>0.5</v>
       </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1.67</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1.5</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.5</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
+        <v>0.75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13">
+        <f>SUM(C13:R13)</f>
+        <v>11.92</v>
+      </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -881,6 +915,31 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
+      <c r="F15">
+        <v>1.25</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1.5</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15">
+        <f>SUM(C15:N15)</f>
+        <v>11.75</v>
+      </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -892,8 +951,8 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <f>Q4+T5+O6+Q7+Q8+P9</f>
-        <v>82.09</v>
+        <f>Q4+T5+O6+Q7+Q8+P9+Y10+AA12+S13+P15</f>
+        <v>151.01</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
@@ -1281,6 +1340,34 @@
       <c r="F29">
         <v>0.5</v>
       </c>
+      <c r="H29">
+        <v>1.67</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.5</v>
+      </c>
+      <c r="N29">
+        <v>0.5</v>
+      </c>
+      <c r="P29">
+        <v>0.75</v>
+      </c>
+      <c r="R29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29">
+        <f>SUM(C29:R29)</f>
+        <v>9.42</v>
+      </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1291,6 +1378,31 @@
       <c r="B31" t="s">
         <v>13</v>
       </c>
+      <c r="F31">
+        <v>1.25</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>1.5</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31">
+        <f>SUM(C31:N31)</f>
+        <v>9.75</v>
+      </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1302,8 +1414,8 @@
         <v>20</v>
       </c>
       <c r="C33">
-        <f>Q20+T21+O22+Q23+Q24+P25</f>
-        <v>98.34</v>
+        <f>Q20+T21+O22+Q23+Q24+P25+Y26+AA28+S29+P31</f>
+        <v>166.76</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
@@ -1709,6 +1821,37 @@
       <c r="F45">
         <v>0.5</v>
       </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1.67</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1.5</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0.5</v>
+      </c>
+      <c r="O45">
+        <v>1.5</v>
+      </c>
+      <c r="P45">
+        <v>0.75</v>
+      </c>
+      <c r="R45" t="s">
+        <v>19</v>
+      </c>
+      <c r="S45">
+        <f>SUM(C45:R45)</f>
+        <v>13.42</v>
+      </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -1719,6 +1862,40 @@
       <c r="B47" t="s">
         <v>13</v>
       </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2.5</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1.25</v>
+      </c>
+      <c r="G47">
+        <v>1.5</v>
+      </c>
+      <c r="H47">
+        <v>1.5</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+      <c r="O47" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47">
+        <f>SUM(C47:N47)</f>
+        <v>19.75</v>
+      </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -1730,8 +1907,8 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <f>Q36+T37+O38+Q39+Q40+P41</f>
-        <v>105.5</v>
+        <f>Q36+T37+O38+Q39+Q40+P41+Y42+AA44+S45+P47</f>
+        <v>184.76</v>
       </c>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
@@ -2104,6 +2281,37 @@
       <c r="F61">
         <v>0.5</v>
       </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>1.67</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>0.5</v>
+      </c>
+      <c r="P61">
+        <v>0.75</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s">
+        <v>19</v>
+      </c>
+      <c r="S61">
+        <f>SUM(C61:R61)</f>
+        <v>13.92</v>
+      </c>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -2114,6 +2322,34 @@
       <c r="B63" t="s">
         <v>13</v>
       </c>
+      <c r="F63">
+        <v>1.25</v>
+      </c>
+      <c r="H63">
+        <v>1.5</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>8</v>
+      </c>
+      <c r="O63" t="s">
+        <v>19</v>
+      </c>
+      <c r="P63">
+        <f>SUM(C63:N63)</f>
+        <v>18.75</v>
+      </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -2125,8 +2361,8 @@
         <v>20</v>
       </c>
       <c r="C65">
-        <f>Q52+T53+O54+Q55+Q56+P57</f>
-        <v>95.84</v>
+        <f>Q52+T53+O54+Q55+Q56+P57+Y58+AA60+S61+P63</f>
+        <v>173.67699999999999</v>
       </c>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
@@ -2523,6 +2759,40 @@
       <c r="F77">
         <v>0.5</v>
       </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>1.67</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>0.5</v>
+      </c>
+      <c r="P77">
+        <v>0.75</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77" t="s">
+        <v>19</v>
+      </c>
+      <c r="S77">
+        <f>SUM(C77:R77)</f>
+        <v>16.920000000000002</v>
+      </c>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
@@ -2533,6 +2803,34 @@
       <c r="B79" t="s">
         <v>13</v>
       </c>
+      <c r="F79">
+        <v>1.25</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>1.5</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>19</v>
+      </c>
+      <c r="P79">
+        <f>SUM(C79:N79)</f>
+        <v>11.75</v>
+      </c>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
@@ -2544,8 +2842,8 @@
         <v>20</v>
       </c>
       <c r="C81">
-        <f>Q68+T69+O70+Q71+Q72+P73+Y74</f>
-        <v>146.34</v>
+        <f>Q68+T69+O70+Q71+Q72+P73+Y74+AA76+S77+P79</f>
+        <v>197.51</v>
       </c>
     </row>
   </sheetData>
